--- a/hsim-experiment/harmonic_similarity_split/harmonic_similarity_matches_17.xlsx
+++ b/hsim-experiment/harmonic_similarity_split/harmonic_similarity_matches_17.xlsx
@@ -483,35 +483,35 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>schubert-winterreise_148</t>
+          <t>jaah_3</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>schubert-winterreise_193</t>
+          <t>isophonics_226</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>0.1916666666666667</v>
+        <v>0.1527777777777778</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>[['G:maj', 'D:7', 'G:maj']]</t>
+          <t>[['Ab', 'Eb', 'Eb']]</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>[['C/G', 'G:7', 'C']]</t>
+          <t>[['A', 'E', 'E']]</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>[(8.08, 19.06)]</t>
+          <t>[(131.54, 134.26)]</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>[(251.5, 255.38)]</t>
+          <t>[(16.759569, 29.414444)]</t>
         </is>
       </c>
       <c r="H2" t="inlineStr"/>
@@ -520,232 +520,236 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>schubert-winterreise_44</t>
+          <t>schubert-winterreise_36</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>schubert-winterreise_202</t>
+          <t>isophonics_31</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>0.2392857142857143</v>
+        <v>0.1020242914979757</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>[['A#/F', 'F:7', 'A#']]</t>
+          <t>[['G:maj', 'E:min', 'A:min/C'], ['G:maj', 'C:maj/G', 'G:maj']]</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>[['F:maj/C', 'C:7', 'F:maj']]</t>
+          <t>[['G', 'E:min', 'A:min'], ['G', 'C', 'G']]</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>[(271.22, 275.78)]</t>
+          <t>[(14.1, 20.24), (21.58, 29.34)]</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>[(63.1, 64.32)]</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr"/>
+          <t>[(26.115071, 38.793167), (17.581738, 30.271443)]</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+        </is>
+      </c>
       <c r="I3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>schubert-winterreise_13</t>
+          <t>isophonics_235</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>isophonics_231</t>
+          <t>schubert-winterreise_72</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>0.08792372881355932</v>
+        <v>0.1458333333333333</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>[['F#:maj', 'B:maj', 'F#:maj']]</t>
+          <t>[['Bb', 'F', 'Bb'], ['F', 'Bb', 'Eb:7']]</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>[['D', 'G', 'D']]</t>
+          <t>[['C:maj', 'G:maj', 'C:maj'], ['G:maj', 'C:maj', 'F:7']]</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>[(10.96, 12.94)]</t>
+          <t>[(26.041712, 37.10602), (27.910918, 40.797993)]</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>[(18.013446, 21.856349)]</t>
+          <t>[(8.34, 10.04), (12.24, 15.4)]</t>
         </is>
       </c>
       <c r="H4" t="inlineStr"/>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t>spotify:track:4F1AgKpuFRMLEgtPETVwZk</t>
-        </is>
-      </c>
+      <c r="I4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>schubert-winterreise_121</t>
+          <t>isophonics_296</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>schubert-winterreise_64</t>
+          <t>schubert-winterreise_9</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>0.09980620155038759</v>
+        <v>0.1001011122345804</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>[['C:min', 'C:min/G', 'G:7', 'C:min', 'C:min']]</t>
+          <t>[['D:maj', 'A/3', 'D/7']]</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>[['D:min', 'D:min', 'A:7', 'D:min', 'D:min']]</t>
+          <t>[['F:maj', 'C:maj', 'F:maj']]</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>[(25.88, 33.5)]</t>
+          <t>[(59.78, 64.294)]</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>[(14.42, 44.7)]</t>
+          <t>[(46.6, 49.04)]</t>
         </is>
       </c>
       <c r="H5" t="inlineStr"/>
       <c r="I5" t="inlineStr">
         <is>
-          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
+          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>schubert-winterreise_202</t>
+          <t>schubert-winterreise_40</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>jaah_6</t>
+          <t>schubert-winterreise_147</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>0.2548262548262548</v>
+        <v>0.5397727272727273</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>[['F:maj/C', 'C:7', 'F:maj']]</t>
+          <t>[['D:maj', 'A:7', 'D:maj', 'A:7', 'D:maj']]</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>[['Eb', 'Bb:7', 'Eb']]</t>
+          <t>[['A:maj/E', 'E:7', 'A:maj', 'E:7', 'A:maj']]</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>[(63.1, 64.32)]</t>
+          <t>[(27.0, 49.86)]</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>[(14.3, 15.21)]</t>
+          <t>[(19.78, 25.82)]</t>
         </is>
       </c>
       <c r="H6" t="inlineStr"/>
-      <c r="I6" t="inlineStr"/>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>schubert-winterreise_176</t>
+          <t>isophonics_227</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>jaah_3</t>
+          <t>schubert-winterreise_163</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>0.06266149870801033</v>
+        <v>0.13125</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>[['E:7', 'A:min', 'A:min']]</t>
+          <t>[['E:7', 'A:min', 'A:min/b3']]</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>[['Bb:7', 'Eb:min', 'Eb:min']]</t>
+          <t>[['C:7', 'F:min/C', 'F:min']]</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>[(12.78, 16.74)]</t>
+          <t>[(5.67204, 8.841564)]</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>[(6.96, 9.2)]</t>
-        </is>
-      </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
-        </is>
-      </c>
-      <c r="I7" t="inlineStr"/>
+          <t>[(32.32, 33.88)]</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr"/>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>jaah_49</t>
+          <t>isophonics_57</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>isophonics_152</t>
+          <t>isophonics_1</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>0.0630879911455451</v>
+        <v>0.1039136302294197</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>[['F:7', 'Bb', 'Bb']]</t>
+          <t>[['G', 'C', 'G', 'C']]</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>[['B:7', 'E', 'A/3']]</t>
+          <t>[['Eb', 'Ab/5', 'Eb', 'Ab/5']]</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>[(44.74, 47.14)]</t>
+          <t>[(135.68755, 139.228594)]</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>[(45.712, 51.648)]</t>
+          <t>[(17.016, 24.727)]</t>
         </is>
       </c>
       <c r="H8" t="inlineStr"/>
@@ -754,81 +758,89 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>schubert-winterreise_193</t>
+          <t>schubert-winterreise_186</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>schubert-winterreise_53</t>
+          <t>jaah_87</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>0.2833333333333333</v>
+        <v>0.1525641025641026</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>[['C', 'C/G', 'G:7', 'C']]</t>
+          <t>[['F:min', 'C:maj', 'F:min', 'G:maj/B']]</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>[['E:maj/G#', 'E:maj/B', 'B:7', 'E:maj/G#']]</t>
+          <t>[['F:min', 'C', 'F:min', 'G']]</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>[(250.3, 255.38)]</t>
+          <t>[(15.04, 20.04)]</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>[(236.78, 249.14)]</t>
-        </is>
-      </c>
-      <c r="H9" t="inlineStr"/>
+          <t>[(3.4, 9.08)]</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+        </is>
+      </c>
       <c r="I9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>isophonics_280</t>
+          <t>isophonics_282</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>schubert-winterreise_126</t>
+          <t>isophonics_200</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>0.3860294117647059</v>
+        <v>0.1652173913043478</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>[['E', 'B:7', 'E', 'B:7', 'E']]</t>
+          <t>[['Eb', 'Bb', 'F'], ['Eb', 'F', 'Bb']]</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>[['D:maj', 'A:7', 'D:maj', 'A:7', 'D:maj']]</t>
+          <t>[['D', 'A', 'E'], ['D', 'E', 'A']]</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>[(61.683832, 71.056785)]</t>
+          <t>[(29.719863, 35.722222), (44.917324, 48.272607)]</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>[(24.52, 47.24)]</t>
-        </is>
-      </c>
-      <c r="H10" t="inlineStr"/>
+          <t>[(8.085475, 18.139715), (60.040123, 71.429511)]</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>spotify:track:3Am0IbOxmvlSXro7N5iSfZ</t>
+        </is>
+      </c>
       <c r="I10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>jaah_54</t>
+          <t>schubert-winterreise_113</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -837,186 +849,194 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>0.1141025641025641</v>
+        <v>0.2708333333333333</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>[['Bb:7', 'Eb', 'Bb:7', 'Eb']]</t>
+          <t>[['F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj']]</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>[['G:7', 'C:maj', 'G:7', 'C:maj']]</t>
+          <t>[['C:maj', 'G:7', 'C:maj', 'G:7', 'C:maj']]</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>[(33.31, 47.63)]</t>
+          <t>[(59.9, 69.84)]</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>[(9.94, 12.54)]</t>
-        </is>
-      </c>
-      <c r="H11" t="inlineStr"/>
+          <t>[(1.6, 12.54)]</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+        </is>
+      </c>
       <c r="I11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>schubert-winterreise_171</t>
+          <t>schubert-winterreise_14</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>isophonics_180</t>
+          <t>isophonics_291</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>0.1001011122345804</v>
+        <v>0.1350574712643678</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>[['F#:maj', 'C#:maj', 'F#:maj']]</t>
+          <t>[['D:maj', 'G:maj', 'D:maj/F#']]</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>[['F', 'C', 'F']]</t>
+          <t>[['D', 'G', 'D']]</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>[(46.56, 49.08)]</t>
+          <t>[(83.34, 87.64)]</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>[(0.440395, 5.558652)]</t>
-        </is>
-      </c>
-      <c r="H12" t="inlineStr">
-        <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
-        </is>
-      </c>
-      <c r="I12" t="inlineStr"/>
+          <t>[(5.20815, 11.03585)]</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr"/>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>spotify:track:06ypiqmILMdVeaiErMFA91</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>isophonics_162</t>
+          <t>schubert-winterreise_152</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>isophonics_296</t>
+          <t>schubert-winterreise_15</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>0.3197674418604651</v>
+        <v>0.1348837209302326</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>[['A', 'D', 'A', 'A', 'D', 'A']]</t>
+          <t>[['E:7', 'A:min', 'A:min']]</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>[['G:maj', 'C:maj', 'G/3', 'G:maj', 'C:maj', 'G:maj']]</t>
+          <t>[['E:7', 'A:min', 'A:min']]</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>[(28.450816, 43.926916)]</t>
+          <t>[(13.66, 17.9)]</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>[(39.093, 47.902)]</t>
+          <t>[(7.36, 16.52)]</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>spotify:track:4MLBqAEzNN89o2M9h92Z26</t>
-        </is>
-      </c>
-      <c r="I13" t="inlineStr"/>
+          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>isophonics_138</t>
+          <t>isophonics_248</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>schubert-winterreise_67</t>
+          <t>isophonics_283</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>0.1769041769041769</v>
+        <v>0.15</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>[['C:min', 'G:7', 'C:min']]</t>
+          <t>[['B', 'E/5', 'F#/4', 'B']]</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>[['B:min', 'F#:7/C#', 'B:min/D']]</t>
+          <t>[['G', 'C', 'D', 'G']]</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>[(1.129708, 6.12526)]</t>
+          <t>[(123.652, 131.396)]</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>[(0.3, 2.82)]</t>
-        </is>
-      </c>
-      <c r="H14" t="inlineStr">
-        <is>
-          <t>spotify:track:6tQvjqDIK9GXWIC6mejms8</t>
-        </is>
-      </c>
-      <c r="I14" t="inlineStr"/>
+          <t>[(63.629047, 74.101247)]</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr"/>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>spotify:track:3tGhRLgcCP6SIZU3tbGl7l</t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>schubert-winterreise_133</t>
+          <t>isophonics_51</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>schubert-winterreise_4</t>
+          <t>isophonics_235</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>0.2976190476190476</v>
+        <v>0.1458333333333333</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>[['G:maj/B', 'C:maj', 'G:maj/D']]</t>
+          <t>[['F', 'G', 'C']]</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>[['D:maj', 'G:maj', 'D:maj/F#']]</t>
+          <t>[['Eb', 'F', 'Bb']]</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>[(61.6, 63.84)]</t>
+          <t>[(25.687641, 32.084739)]</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>[(66.52, 70.14)]</t>
+          <t>[(59.292687, 74.118628)]</t>
         </is>
       </c>
       <c r="H15" t="inlineStr"/>
@@ -1025,35 +1045,35 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>schubert-winterreise_116</t>
+          <t>schubert-winterreise_155</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>schubert-winterreise_41</t>
+          <t>schubert-winterreise_104</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>0.1880877742946708</v>
+        <v>1</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>[['G:min', 'D:7/G', 'G:min'], ['G:min', 'D:maj/G', 'G:min']]</t>
+          <t>[['C:maj', 'G:7', 'C:maj', 'G:7', 'C:maj', 'G:maj', 'C:maj', 'G:maj', 'C:maj', 'G:maj', 'C:maj', 'G:maj', 'C:maj', 'F:7', 'A#:maj', 'D:7/A', 'G#:(3,5)', 'C:maj', 'A:(3,5,b7,b9)', 'D:min/G', 'F:maj/G', 'G:7', 'C:maj', 'C:min']]</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>[['B:min', 'F#:7/C#', 'B:min/D'], ['B:min', 'F#:maj/A#', 'B:min']]</t>
+          <t>[['C:maj', 'G:7', 'C:maj', 'G:7', 'C:maj', 'G:maj', 'C:maj', 'G:maj', 'C:maj', 'G:maj', 'C:maj', 'G:maj', 'C:maj', 'F:7', 'A#:maj', 'D:7/A', 'G#:(3,5)', 'C:maj', 'A:(3,5,b7,b9)', 'D:min/G', 'F:maj/G', 'G:7', 'C:maj', 'C:min']]</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>[(19.98, 27.18), (8.44, 17.54)]</t>
+          <t>[(1.46, 39.82)]</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>[(0.66, 2.68), (13.74, 16.3)]</t>
+          <t>[(0.24, 35.1)]</t>
         </is>
       </c>
       <c r="H16" t="inlineStr"/>
@@ -1062,35 +1082,35 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>isophonics_280</t>
+          <t>isophonics_204</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>schubert-winterreise_145</t>
+          <t>isophonics_128</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>0.3441176470588235</v>
+        <v>0.1366396761133603</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>[['E', 'A', 'E']]</t>
+          <t>[['D', 'A', 'D'], ['A', 'D', 'A']]</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>[['D:maj/A', 'G:maj', 'D:maj/A']]</t>
+          <t>[['F', 'C', 'F'], ['C', 'F', 'C']]</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>[(3.389127, 22.035759)]</t>
+          <t>[(32.874217, 37.657528), (33.698526, 40.885102)]</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>[(143.58, 148.16)]</t>
+          <t>[(12.376258, 19.597664), (10.634761, 15.986961)]</t>
         </is>
       </c>
       <c r="H17" t="inlineStr"/>

--- a/hsim-experiment/harmonic_similarity_split/harmonic_similarity_matches_17.xlsx
+++ b/hsim-experiment/harmonic_similarity_split/harmonic_similarity_matches_17.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I17"/>
+  <dimension ref="A1:J16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,45 +436,50 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
+          <t>similarity_range</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
           <t>track_1</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>track_2</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>sim_val</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>pattern_track_1</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>pattern_track_2</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>time_pattern_track_1</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>time_pattern_track_2</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>link_track_1</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>link_track_2</t>
         </is>
@@ -483,638 +488,672 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>jaah_3</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>isophonics_226</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>0.1527777777777778</v>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>[['Ab', 'Eb', 'Eb']]</t>
-        </is>
+          <t>isophonics_164</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_82</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
+        <v>0.2152173913043478</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>[['A', 'E', 'E']]</t>
+          <t>[['Eb', 'Bb:7', 'Eb'], ['D:7', 'G', 'C:min'], ['C:min', 'F:min', 'C:min']]</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>[(131.54, 134.26)]</t>
+          <t>[['G:maj/B', 'D:7', 'G:maj'], ['A:7', 'D:maj', 'G:min'], ['G:min', 'C:min/G', 'G:min']]</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>[(16.759569, 29.414444)]</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr"/>
+          <t>[('0:00:48.001000', '0:00:54.307000'), ('0:01:16.958000', '0:01:25.346000'), ('0:00:07.702000', '0:00:13.841000')]</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>[('0:00:18.060000', '0:00:20.600000'), ('0:00:12.240000', '0:00:16.420000'), ('0:00:00.500000', '0:00:03.900000')]</t>
+        </is>
+      </c>
       <c r="I2" t="inlineStr"/>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>schubert-winterreise_36</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>isophonics_31</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>0.1020242914979757</v>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>[['G:maj', 'E:min', 'A:min/C'], ['G:maj', 'C:maj/G', 'G:maj']]</t>
-        </is>
+          <t>schubert-winterreise_187</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>jaah_3</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>0.05277777777777778</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>[['G', 'E:min', 'A:min'], ['G', 'C', 'G']]</t>
+          <t>[['G:7', 'C:min', 'C:min'], ['C', 'C/G', 'G:7']]</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>[(14.1, 20.24), (21.58, 29.34)]</t>
+          <t>[['Bb:7', 'Eb:min', 'Eb:min'], ['Eb', 'Eb', 'Bb:7']]</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>[(26.115071, 38.793167), (17.581738, 30.271443)]</t>
+          <t>[('0:00:24.540000', '0:00:29.420000'), ('0:03:55.320000', '0:03:57.580000')]</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+          <t>[('0:00:06.960000', '0:00:09.200000'), ('0:00:32.800000', '0:00:35.470000')]</t>
         </is>
       </c>
       <c r="I3" t="inlineStr"/>
+      <c r="J3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>isophonics_235</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>schubert-winterreise_72</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>0.1458333333333333</v>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>[['Bb', 'F', 'Bb'], ['F', 'Bb', 'Eb:7']]</t>
-        </is>
+          <t>schubert-winterreise_59</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_114</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>1</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>[['C:maj', 'G:maj', 'C:maj'], ['G:maj', 'C:maj', 'F:7']]</t>
+          <t>[['C:maj', 'B:(3,5,b9)/C', 'C:maj', 'F#:(3,b5,b9)/C', 'B:maj/C', 'C:maj', 'B:(3,5,b7,b9)', 'C:maj']]</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>[(26.041712, 37.10602), (27.910918, 40.797993)]</t>
+          <t>[['A#:maj', 'A:(3,5,b9)/A#', 'A#:maj', 'E:(3,b5,b9)/A#', 'A:maj/A#', 'A#:maj', 'A:(3,5,b7,b9)', 'A#:maj']]</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>[(8.34, 10.04), (12.24, 15.4)]</t>
-        </is>
-      </c>
-      <c r="H4" t="inlineStr"/>
+          <t>[('0:02:40.060000', '0:02:44.460000')]</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>[('0:02:38.280000', '0:02:43.560000')]</t>
+        </is>
+      </c>
       <c r="I4" t="inlineStr"/>
+      <c r="J4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>isophonics_296</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>schubert-winterreise_9</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>0.1001011122345804</v>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>[['D:maj', 'A/3', 'D/7']]</t>
-        </is>
+          <t>isophonics_227</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_185</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>0.06971153846153846</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>[['F:maj', 'C:maj', 'F:maj']]</t>
+          <t>[['E:7', 'A:min', 'D:min']]</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>[(59.78, 64.294)]</t>
+          <t>[['F#:7/B', 'B:min', 'E:min/B']]</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>[(46.6, 49.04)]</t>
-        </is>
-      </c>
-      <c r="H5" t="inlineStr"/>
-      <c r="I5" t="inlineStr">
-        <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+          <t>[('0:00:20.045192', '0:00:25.141972')]</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>[('0:00:26.160000', '0:00:34.300000')]</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr"/>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>schubert-winterreise_40</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>schubert-winterreise_147</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>0.5397727272727273</v>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>[['D:maj', 'A:7', 'D:maj', 'A:7', 'D:maj']]</t>
-        </is>
+          <t>isophonics_152</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_136</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>0.1291208791208791</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>[['A:maj/E', 'E:7', 'A:maj', 'E:7', 'A:maj']]</t>
+          <t>[['B:7', 'E', 'A/3'], ['A/3', 'E/5', 'A/3']]</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>[(27.0, 49.86)]</t>
+          <t>[['C:7', 'F:maj', 'F:maj'], ['F:maj', 'C:maj', 'F:maj']]</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>[(19.78, 25.82)]</t>
-        </is>
-      </c>
-      <c r="H6" t="inlineStr"/>
-      <c r="I6" t="inlineStr">
-        <is>
-          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
-        </is>
-      </c>
+          <t>[('0:00:45.712000', '0:00:51.648000'), ('0:00:14.168000', '0:00:18.573000')]</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>[('0:01:20.800000', '0:01:31.180000'), ('0:00:02.500000', '0:00:26.200000')]</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr"/>
+      <c r="J6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>isophonics_227</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>schubert-winterreise_163</t>
-        </is>
-      </c>
-      <c r="C7" t="n">
-        <v>0.13125</v>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>[['E:7', 'A:min', 'A:min/b3']]</t>
-        </is>
+          <t>schubert-winterreise_112</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_106</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
+        <v>0.2</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>[['C:7', 'F:min/C', 'F:min']]</t>
+          <t>[['D#:min', 'A#:7', 'D#:min']]</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>[(5.67204, 8.841564)]</t>
+          <t>[['B:min', 'F#:7/A#', 'B:min']]</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>[(32.32, 33.88)]</t>
-        </is>
-      </c>
-      <c r="H7" t="inlineStr"/>
+          <t>[('0:00:08.260000', '0:00:12.960000')]</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>[('0:00:39.840000', '0:00:47.280000')]</t>
+        </is>
+      </c>
       <c r="I7" t="inlineStr">
         <is>
           <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>isophonics_57</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>isophonics_1</t>
-        </is>
-      </c>
-      <c r="C8" t="n">
-        <v>0.1039136302294197</v>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>[['G', 'C', 'G', 'C']]</t>
-        </is>
+          <t>schubert-winterreise_14</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_166</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
+        <v>1</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>[['Eb', 'Ab/5', 'Eb', 'Ab/5']]</t>
+          <t>[['A:maj', 'D:maj', 'E:9/G#', 'A:maj', 'B:7/F#', 'E:min', 'A:(3,5,b7,b9)', 'D:maj', 'G:maj', 'D:maj/F#', 'A:min/E', 'B:maj/D#', 'C:maj/E', 'D:7/F#', 'G:maj', 'E:min7/G', 'E:(3,5,b7,b9)/G#', 'A:maj']]</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>[(135.68755, 139.228594)]</t>
+          <t>[['A:maj', 'D:maj', 'E:9/G#', 'A:maj', 'B:7/F#', 'E:min', 'A:(3,5,b7,b9)', 'D:maj', 'G:maj', 'D:maj/F#', 'A:min/E', 'B:maj/D#', 'C:maj/E', 'D:7/F#', 'G:maj', 'E:min7/G', 'E:(3,5,b7,b9)/G#', 'A:maj']]</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>[(17.016, 24.727)]</t>
-        </is>
-      </c>
-      <c r="H8" t="inlineStr"/>
+          <t>[('0:01:13.260000', '0:01:39.080000')]</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>[('0:00:58.680000', '0:01:20.420000')]</t>
+        </is>
+      </c>
       <c r="I8" t="inlineStr"/>
+      <c r="J8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>schubert-winterreise_186</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>jaah_87</t>
-        </is>
-      </c>
-      <c r="C9" t="n">
-        <v>0.1525641025641026</v>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>[['F:min', 'C:maj', 'F:min', 'G:maj/B']]</t>
-        </is>
+          <t>schubert-winterreise_73</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_89</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>0.3726708074534161</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>[['F:min', 'C', 'F:min', 'G']]</t>
+          <t>[['G:maj/D', 'D:7', 'G:maj', 'G:min']]</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>[(15.04, 20.04)]</t>
+          <t>[['G:maj/B', 'D:7', 'G:maj', 'G:min']]</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>[(3.4, 9.08)]</t>
+          <t>[('0:01:06.920000', '0:01:10.300000')]</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+          <t>[('0:00:21.340000', '0:00:24.960000')]</t>
         </is>
       </c>
       <c r="I9" t="inlineStr"/>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>isophonics_282</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>isophonics_200</t>
-        </is>
-      </c>
-      <c r="C10" t="n">
-        <v>0.1652173913043478</v>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>[['Eb', 'Bb', 'F'], ['Eb', 'F', 'Bb']]</t>
-        </is>
+          <t>schubert-winterreise_147</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_73</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
+        <v>0.3506493506493507</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>[['D', 'A', 'E'], ['D', 'E', 'A']]</t>
+          <t>[['A:maj/E', 'E:7', 'A:maj']]</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>[(29.719863, 35.722222), (44.917324, 48.272607)]</t>
+          <t>[['G:maj/D', 'D:7', 'G:maj']]</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>[(8.085475, 18.139715), (60.040123, 71.429511)]</t>
+          <t>[('0:00:19.780000', '0:00:23.120000')]</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>spotify:track:3Am0IbOxmvlSXro7N5iSfZ</t>
-        </is>
-      </c>
-      <c r="I10" t="inlineStr"/>
+          <t>[('0:01:06.920000', '0:01:08.180000')]</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>schubert-winterreise_113</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>schubert-winterreise_161</t>
-        </is>
-      </c>
-      <c r="C11" t="n">
-        <v>0.2708333333333333</v>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>[['F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj']]</t>
-        </is>
+          <t>isophonics_101</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>isophonics_140</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
+        <v>0.4444444444444444</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>[['C:maj', 'G:7', 'C:maj', 'G:7', 'C:maj']]</t>
+          <t>[['C#', 'F#/5', 'C#', 'F#/5']]</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>[(59.9, 69.84)]</t>
+          <t>[['G', 'C', 'G', 'C']]</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>[(1.6, 12.54)]</t>
+          <t>[('0:00:31.469410', '0:02:07.006105')]</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+          <t>[('0:00:00.465952', '0:00:06.886543')]</t>
         </is>
       </c>
       <c r="I11" t="inlineStr"/>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>spotify:track:3VbGCXWRiouAq8VyMYN2MI</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>schubert-winterreise_14</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>isophonics_291</t>
-        </is>
-      </c>
-      <c r="C12" t="n">
-        <v>0.1350574712643678</v>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>[['D:maj', 'G:maj', 'D:maj/F#']]</t>
-        </is>
+          <t>schubert-winterreise_197</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_126</t>
+        </is>
+      </c>
+      <c r="D12" t="n">
+        <v>0.421195652173913</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>[['D', 'G', 'D']]</t>
+          <t>[['C#:7', 'F#:maj', 'F#:maj/A#', 'C#:7', 'F#:maj']]</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>[(83.34, 87.64)]</t>
+          <t>[['A:7/G', 'D:maj/F#', 'D:maj/A', 'A:7', 'D:maj/F#']]</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>[(5.20815, 11.03585)]</t>
-        </is>
-      </c>
-      <c r="H12" t="inlineStr"/>
+          <t>[('0:00:18.660000', '0:00:21.840000')]</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>[('0:04:05.420000', '0:04:23.440000')]</t>
+        </is>
+      </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>spotify:track:06ypiqmILMdVeaiErMFA91</t>
-        </is>
-      </c>
+          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>schubert-winterreise_152</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>schubert-winterreise_15</t>
-        </is>
-      </c>
-      <c r="C13" t="n">
-        <v>0.1348837209302326</v>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>[['E:7', 'A:min', 'A:min']]</t>
-        </is>
+          <t>schubert-winterreise_198</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_189</t>
+        </is>
+      </c>
+      <c r="D13" t="n">
+        <v>0.4017857142857143</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>[['E:7', 'A:min', 'A:min']]</t>
+          <t>[['E:maj', 'B:7', 'E:maj'], ['E:maj/G#', 'A:maj', 'E:maj']]</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>[(13.66, 17.9)]</t>
+          <t>[['G:maj/D', 'D:7', 'G:maj'], ['G:maj/B', 'C:maj', 'G:maj/D']]</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>[(7.36, 16.52)]</t>
+          <t>[('0:00:00.400000', '0:00:09.040000'), ('0:00:55.180000', '0:01:02.060000')]</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
-        </is>
-      </c>
-      <c r="I13" t="inlineStr">
-        <is>
-          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
-        </is>
-      </c>
+          <t>[('0:00:58.320000', '0:00:59.680000'), ('0:00:56.720000', '0:00:58.880000')]</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr"/>
+      <c r="J13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>isophonics_248</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>isophonics_283</t>
-        </is>
-      </c>
-      <c r="C14" t="n">
-        <v>0.15</v>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>[['B', 'E/5', 'F#/4', 'B']]</t>
-        </is>
+          <t>schubert-winterreise_209</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>isophonics_101</t>
+        </is>
+      </c>
+      <c r="D14" t="n">
+        <v>0.7333333333333334</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>[['G', 'C', 'D', 'G']]</t>
+          <t>[['D:maj/A', 'G:maj', 'D:maj/A', 'G:maj/B']]</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>[(123.652, 131.396)]</t>
+          <t>[['C#', 'F#/5', 'C#', 'F#/5']]</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>[(63.629047, 74.101247)]</t>
-        </is>
-      </c>
-      <c r="H14" t="inlineStr"/>
-      <c r="I14" t="inlineStr">
-        <is>
-          <t>spotify:track:3tGhRLgcCP6SIZU3tbGl7l</t>
-        </is>
-      </c>
+          <t>[('0:02:18.800000', '0:02:25.800000')]</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>[('0:00:31.469410', '0:02:07.006105')]</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr"/>
+      <c r="J14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>isophonics_51</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>isophonics_235</t>
-        </is>
-      </c>
-      <c r="C15" t="n">
-        <v>0.1458333333333333</v>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>[['F', 'G', 'C']]</t>
-        </is>
+          <t>schubert-winterreise_82</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_157</t>
+        </is>
+      </c>
+      <c r="D15" t="n">
+        <v>1</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>[['Eb', 'F', 'Bb']]</t>
+          <t>[['G:min', 'C:min/G', 'G:min', 'D:7', 'G:min', 'G:min', 'A:min/C', 'D:maj', 'D:maj/A', 'A:7', 'D:maj', 'D:maj/A', 'A:7', 'D:maj', 'G:min', 'C#:dim7', 'D:maj', 'G:maj/B', 'D:7', 'G:maj', 'G:maj/B', 'D:7', 'G:maj']]</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>[(25.687641, 32.084739)]</t>
+          <t>[['F:min', 'A#:min/F', 'F:min', 'C:7', 'F:min', 'F:min', 'G:min/A#', 'C:maj', 'C:maj/G', 'G:7', 'C:maj', 'C:maj/G', 'G:7', 'C:maj', 'F:min', 'B:dim7', 'C:maj', 'F:maj/A', 'C:7', 'F:maj', 'F:maj/A', 'C:7', 'F:maj']]</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>[(59.292687, 74.118628)]</t>
-        </is>
-      </c>
-      <c r="H15" t="inlineStr"/>
-      <c r="I15" t="inlineStr"/>
+          <t>[('0:00:00.500000', '0:00:23.020000')]</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>[('0:00:00.300000', '0:00:20.700000')]</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+        </is>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>schubert-winterreise_155</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>schubert-winterreise_104</t>
-        </is>
-      </c>
-      <c r="C16" t="n">
-        <v>1</v>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>[['C:maj', 'G:7', 'C:maj', 'G:7', 'C:maj', 'G:maj', 'C:maj', 'G:maj', 'C:maj', 'G:maj', 'C:maj', 'G:maj', 'C:maj', 'F:7', 'A#:maj', 'D:7/A', 'G#:(3,5)', 'C:maj', 'A:(3,5,b7,b9)', 'D:min/G', 'F:maj/G', 'G:7', 'C:maj', 'C:min']]</t>
-        </is>
+          <t>schubert-winterreise_189</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_56</t>
+        </is>
+      </c>
+      <c r="D16" t="n">
+        <v>0.7142857142857143</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>[['C:maj', 'G:7', 'C:maj', 'G:7', 'C:maj', 'G:maj', 'C:maj', 'G:maj', 'C:maj', 'G:maj', 'C:maj', 'G:maj', 'C:maj', 'F:7', 'A#:maj', 'D:7/A', 'G#:(3,5)', 'C:maj', 'A:(3,5,b7,b9)', 'D:min/G', 'F:maj/G', 'G:7', 'C:maj', 'C:min']]</t>
+          <t>[['D#:maj/A#', 'A#:(3,5,b7,b9)', 'D#:maj']]</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>[(1.46, 39.82)]</t>
+          <t>[['A#:maj', 'F:(3,5,b7,b9)', 'A#:maj']]</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>[(0.24, 35.1)]</t>
-        </is>
-      </c>
-      <c r="H16" t="inlineStr"/>
+          <t>[('0:00:53.160000', '0:00:55.820000')]</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>[('0:00:21.880000', '0:00:24.860000')]</t>
+        </is>
+      </c>
       <c r="I16" t="inlineStr"/>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>isophonics_204</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>isophonics_128</t>
-        </is>
-      </c>
-      <c r="C17" t="n">
-        <v>0.1366396761133603</v>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>[['D', 'A', 'D'], ['A', 'D', 'A']]</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>[['F', 'C', 'F'], ['C', 'F', 'C']]</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>[(32.874217, 37.657528), (33.698526, 40.885102)]</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>[(12.376258, 19.597664), (10.634761, 15.986961)]</t>
-        </is>
-      </c>
-      <c r="H17" t="inlineStr"/>
-      <c r="I17" t="inlineStr"/>
+      <c r="J16" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
